--- a/base/CPF_filial.xlsx
+++ b/base/CPF_filial.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="21600" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>ResponsávelFinanceiro</t>
   </si>
@@ -38,310 +38,352 @@
     <t>CPF</t>
   </si>
   <si>
+    <t>Alexandre Luciano Ehrhardt</t>
+  </si>
+  <si>
+    <t>André Bicca Machado</t>
+  </si>
+  <si>
+    <t>939.852.230-68</t>
+  </si>
+  <si>
+    <t>Andréa Barudi da Costa Sansão</t>
+  </si>
+  <si>
+    <t>Bianca Hocevar de Moura</t>
+  </si>
+  <si>
+    <t>006.655.120-07</t>
+  </si>
+  <si>
+    <t>Carlo Fragomeni Stella</t>
+  </si>
+  <si>
+    <t>003.678.040-50</t>
+  </si>
+  <si>
+    <t>Carlo Nunes Manenti</t>
+  </si>
+  <si>
+    <t>Carlos Francisco Wahrlich</t>
+  </si>
+  <si>
+    <t>976.237.920.91</t>
+  </si>
+  <si>
+    <t>Carolina Filippini Spier</t>
+  </si>
+  <si>
+    <t>010.133.030.83</t>
+  </si>
+  <si>
+    <t>Cássio Ribeiro dos Santos</t>
+  </si>
+  <si>
+    <t>003.893.520.12</t>
+  </si>
+  <si>
+    <t>Christian Camaratta Anton</t>
+  </si>
+  <si>
     <t>Daisy Catiane Schardosim Reck</t>
   </si>
   <si>
+    <t>Daniel Gamermann</t>
+  </si>
+  <si>
+    <t>821.357.030.87</t>
+  </si>
+  <si>
+    <t>Darnes Zanatta Junior</t>
+  </si>
+  <si>
+    <t>009.915.250.94</t>
+  </si>
+  <si>
+    <t>David da Costa Lopes</t>
+  </si>
+  <si>
+    <t>Denise de Borba Antunes</t>
+  </si>
+  <si>
+    <t>022.025.270-01</t>
+  </si>
+  <si>
+    <t>Diego Centofalante</t>
+  </si>
+  <si>
+    <t>014.067.750.02</t>
+  </si>
+  <si>
+    <t>Dilceu Lewi</t>
+  </si>
+  <si>
+    <t>927.172.920-04</t>
+  </si>
+  <si>
+    <t>Douglas Secco dos Santos</t>
+  </si>
+  <si>
+    <t>004.926.650-01</t>
+  </si>
+  <si>
+    <t>Evandro Cardoso Lippert Junior</t>
+  </si>
+  <si>
+    <t>005.252.210-50</t>
+  </si>
+  <si>
+    <t>Fábio Souza da Rocha</t>
+  </si>
+  <si>
+    <t>010.722.210.80</t>
+  </si>
+  <si>
+    <t>Felipe de Mello Wattenberg</t>
+  </si>
+  <si>
+    <t>Felipe Martins Bascuas</t>
+  </si>
+  <si>
+    <t>034.464.060-42</t>
+  </si>
+  <si>
+    <t>Filipe de Aguiar Geissler</t>
+  </si>
+  <si>
+    <t>006.420.910-56</t>
+  </si>
+  <si>
+    <t>Flávio Fagundes Visentini</t>
+  </si>
+  <si>
+    <t>580.331.810-87</t>
+  </si>
+  <si>
+    <t>Gilberto Braulio</t>
+  </si>
+  <si>
+    <t>012.017.020-54</t>
+  </si>
+  <si>
+    <t>Gustavo Pulita Cruz Valido</t>
+  </si>
+  <si>
+    <t>299.136.628.18</t>
+  </si>
+  <si>
+    <t>Henrique Araujo Godinho</t>
+  </si>
+  <si>
+    <t>015.091.666.37</t>
+  </si>
+  <si>
+    <t>Inaiê Jacobsen</t>
+  </si>
+  <si>
+    <t>861.994.800-82</t>
+  </si>
+  <si>
+    <t>Ismael Rolim Dreger</t>
+  </si>
+  <si>
+    <t>006.999.510.97</t>
+  </si>
+  <si>
+    <t>Ivan Fraga da Costa Júnior</t>
+  </si>
+  <si>
+    <t>991.669.680.20</t>
+  </si>
+  <si>
+    <t>Joana Paula Santos Ramos</t>
+  </si>
+  <si>
+    <t>011.786.174.08</t>
+  </si>
+  <si>
+    <t>Joice Trindade</t>
+  </si>
+  <si>
+    <t>010.520.440-42</t>
+  </si>
+  <si>
+    <t>Julio César de Oliveira</t>
+  </si>
+  <si>
+    <t>006.321.460-10</t>
+  </si>
+  <si>
+    <t>Lauren Kleinert Londero Saldanha</t>
+  </si>
+  <si>
+    <t>000.527.830.90</t>
+  </si>
+  <si>
+    <t>Lea Schmatz Back</t>
+  </si>
+  <si>
+    <t>008.289.130-30</t>
+  </si>
+  <si>
+    <t>Leonardo Zanela Giacomolli</t>
+  </si>
+  <si>
+    <t>001.965.940-73</t>
+  </si>
+  <si>
+    <t>Lívia Deprá Camargo Sulzbach</t>
+  </si>
+  <si>
+    <t>976.452.570.91</t>
+  </si>
+  <si>
+    <t>Luana Barbosa Martins</t>
+  </si>
+  <si>
+    <t>004.168.820.13</t>
+  </si>
+  <si>
+    <t>Luis Felipe Spinelli</t>
+  </si>
+  <si>
+    <t>003.769.790-03</t>
+  </si>
+  <si>
+    <t>Luiz Henrique Fonseca de Nóbrega</t>
+  </si>
+  <si>
+    <t>013.758.094-07</t>
+  </si>
+  <si>
+    <t>Luiza Leal Fontanella Cabral</t>
+  </si>
+  <si>
+    <t>029.525.060.78</t>
+  </si>
+  <si>
+    <t>Maique Pereira Agnes</t>
+  </si>
+  <si>
+    <t>Márcia Helena Carvalho Bom</t>
+  </si>
+  <si>
+    <t>Márcio Lavies Bonder</t>
+  </si>
+  <si>
     <t>Mariana Milanez Sahão de Brum</t>
   </si>
   <si>
     <t>322.942.848.01</t>
   </si>
   <si>
-    <t>Cássio Ribeiro dos Santos</t>
-  </si>
-  <si>
-    <t>003.893.520.12</t>
-  </si>
-  <si>
-    <t>Lea Schmatz Back</t>
-  </si>
-  <si>
-    <t>008.289.130-30</t>
-  </si>
-  <si>
-    <t>Diego Centofalante</t>
-  </si>
-  <si>
-    <t>014.067.750.02</t>
+    <t>Moacir Camargo Junior</t>
+  </si>
+  <si>
+    <t>002.220.430.08</t>
+  </si>
+  <si>
+    <t>Patrícia Pires Dill</t>
+  </si>
+  <si>
+    <t>Pedro Rogério Vieira de Almeida</t>
+  </si>
+  <si>
+    <t>006.849.320.75</t>
+  </si>
+  <si>
+    <t>Rafael Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Renan Weber Kirst</t>
+  </si>
+  <si>
+    <t>018.113.270.28</t>
+  </si>
+  <si>
+    <t>Renata Bartzen Pereira</t>
+  </si>
+  <si>
+    <t>007.123.720.83</t>
+  </si>
+  <si>
+    <t>Ricardo Athanásio Felinto de Oliveira</t>
+  </si>
+  <si>
+    <t>607.256.130.68</t>
+  </si>
+  <si>
+    <t>Roberto Acauan de Araújo Junior</t>
+  </si>
+  <si>
+    <t>Rodolpho Espinoza Neto</t>
+  </si>
+  <si>
+    <t>010.124.930-67</t>
+  </si>
+  <si>
+    <t>Rodrigo Molinaro Rocha da Silva</t>
+  </si>
+  <si>
+    <t>809.781.340-87</t>
+  </si>
+  <si>
+    <t>Rodrigo Xavier de Souza</t>
+  </si>
+  <si>
+    <t>Rogério Carlos Fossati Junior</t>
+  </si>
+  <si>
+    <t>265.589.040-04</t>
+  </si>
+  <si>
+    <t>Sérgio Henrique Lucas Fontes</t>
+  </si>
+  <si>
+    <t>976.606.040.15</t>
+  </si>
+  <si>
+    <t>Silvia Teixeira da Motta</t>
+  </si>
+  <si>
+    <t>000.201.070.48</t>
+  </si>
+  <si>
+    <t>Silvia Terres Marasco</t>
+  </si>
+  <si>
+    <t>001.467.920.50</t>
+  </si>
+  <si>
+    <t>Tássia Akemi de Farias Araki</t>
+  </si>
+  <si>
+    <t>711.172.884.04</t>
+  </si>
+  <si>
+    <t>Thaís Fernández</t>
+  </si>
+  <si>
+    <t>064.457.520.47</t>
+  </si>
+  <si>
+    <t>Thiago Dutra Rodrigues</t>
+  </si>
+  <si>
+    <t>008.283.080-04</t>
+  </si>
+  <si>
+    <t>Tiago Della Giustina Soares</t>
+  </si>
+  <si>
+    <t>011.089.000.03</t>
   </si>
   <si>
     <t>Wellington Vinicius Zancan</t>
   </si>
   <si>
     <t>034.030.860-54</t>
-  </si>
-  <si>
-    <t>Rodolpho Espinoza Neto</t>
-  </si>
-  <si>
-    <t>010.124.930-67</t>
-  </si>
-  <si>
-    <t>Bianca Hocevar de Moura</t>
-  </si>
-  <si>
-    <t>006.655.120-07</t>
-  </si>
-  <si>
-    <t>Denise de Borba Antunes</t>
-  </si>
-  <si>
-    <t>022.025.270-01</t>
-  </si>
-  <si>
-    <t>Julio César de Oliveira</t>
-  </si>
-  <si>
-    <t>006.321.460-10</t>
-  </si>
-  <si>
-    <t>Felipe de Mello Wattenberg</t>
-  </si>
-  <si>
-    <t>Joana Paula Santos Ramos</t>
-  </si>
-  <si>
-    <t>011.786.174.08</t>
-  </si>
-  <si>
-    <t>Carlos Francisco Wahrlich</t>
-  </si>
-  <si>
-    <t>976.237.920.91</t>
-  </si>
-  <si>
-    <t>Renan Weber Kirst</t>
-  </si>
-  <si>
-    <t>018.113.270.28</t>
-  </si>
-  <si>
-    <t>Luana Barbosa Martins</t>
-  </si>
-  <si>
-    <t>004.168.820.13</t>
-  </si>
-  <si>
-    <t>Tássia Akemi de Farias Araki</t>
-  </si>
-  <si>
-    <t>711.172.884.04</t>
-  </si>
-  <si>
-    <t>Silvia Teixeira da Motta</t>
-  </si>
-  <si>
-    <t>000.201.070.48</t>
-  </si>
-  <si>
-    <t>Luiza Leal Fontanella Cabral</t>
-  </si>
-  <si>
-    <t>029.525.060.78</t>
-  </si>
-  <si>
-    <t>Lauren Kleinert Londero Saldanha</t>
-  </si>
-  <si>
-    <t>000.527.830.90</t>
-  </si>
-  <si>
-    <t>Darnes Zanatta Junior</t>
-  </si>
-  <si>
-    <t>009.915.250.94</t>
-  </si>
-  <si>
-    <t>Márcia Helena Carvalho Bom</t>
-  </si>
-  <si>
-    <t>Henrique Araujo Godinho</t>
-  </si>
-  <si>
-    <t>015.091.666.37</t>
-  </si>
-  <si>
-    <t>Márcio Lavies Bonder</t>
-  </si>
-  <si>
-    <t>David da Costa Lopes</t>
-  </si>
-  <si>
-    <t>Gilberto Braulio</t>
-  </si>
-  <si>
-    <t>012.017.020-54</t>
-  </si>
-  <si>
-    <t>Ricardo Athanásio Felinto de Oliveira</t>
-  </si>
-  <si>
-    <t>607.256.130.68</t>
-  </si>
-  <si>
-    <t>Ivan Fraga da Costa Júnior</t>
-  </si>
-  <si>
-    <t>991.669.680.20</t>
-  </si>
-  <si>
-    <t>Lívia Deprá Camargo Sulzbach</t>
-  </si>
-  <si>
-    <t>976.452.570.91</t>
-  </si>
-  <si>
-    <t>Rogério Carlos Fossati Junior</t>
-  </si>
-  <si>
-    <t>265.589.040-04</t>
-  </si>
-  <si>
-    <t>Ismael Rolim Dreger</t>
-  </si>
-  <si>
-    <t>006.999.510.97</t>
-  </si>
-  <si>
-    <t>Christian Camaratta Anton</t>
-  </si>
-  <si>
-    <t>Gustavo Pulita Cruz Valido</t>
-  </si>
-  <si>
-    <t>299.136.628.18</t>
-  </si>
-  <si>
-    <t>Roberto Acauan de Araújo Junior</t>
-  </si>
-  <si>
-    <t>Patrícia Pires Dill</t>
-  </si>
-  <si>
-    <t>Carolina Filippini Spier</t>
-  </si>
-  <si>
-    <t>010.133.030.83</t>
-  </si>
-  <si>
-    <t>Rodrigo Xavier de Souza</t>
-  </si>
-  <si>
-    <t>Leonardo Zanela Giacomolli</t>
-  </si>
-  <si>
-    <t>001.965.940-73</t>
-  </si>
-  <si>
-    <t>Luiz Henrique Fonseca de Nóbrega</t>
-  </si>
-  <si>
-    <t>013.758.094-07</t>
-  </si>
-  <si>
-    <t>Carlo Nunes Manenti</t>
-  </si>
-  <si>
-    <t>Alexandre Luciano Ehrhardt</t>
-  </si>
-  <si>
-    <t>Daniel Gamermann</t>
-  </si>
-  <si>
-    <t>821.357.030.87</t>
-  </si>
-  <si>
-    <t>Moacir Camargo Junior</t>
-  </si>
-  <si>
-    <t>002.220.430.08</t>
-  </si>
-  <si>
-    <t>Sérgio Henrique Lucas Fontes</t>
-  </si>
-  <si>
-    <t>976.606.040.15</t>
-  </si>
-  <si>
-    <t>Joice Trindade</t>
-  </si>
-  <si>
-    <t>010.520.440-42</t>
-  </si>
-  <si>
-    <t>Renata Bartzen Pereira</t>
-  </si>
-  <si>
-    <t>007.123.720.83</t>
-  </si>
-  <si>
-    <t>Silvia Terres Marasco</t>
-  </si>
-  <si>
-    <t>001.467.920.50</t>
-  </si>
-  <si>
-    <t>Luis Felipe Spinelli</t>
-  </si>
-  <si>
-    <t>003.769.790-03</t>
-  </si>
-  <si>
-    <t>Thiago Dutra Rodrigues</t>
-  </si>
-  <si>
-    <t>008.283.080-04</t>
-  </si>
-  <si>
-    <t>Flávio Fagundes Visentini</t>
-  </si>
-  <si>
-    <t>580.331.810-87</t>
-  </si>
-  <si>
-    <t>Fábio Souza da Rocha</t>
-  </si>
-  <si>
-    <t>010.722.210.80</t>
-  </si>
-  <si>
-    <t>Andréa Barudi da Costa Sansão</t>
-  </si>
-  <si>
-    <t>Thaís Fernández</t>
-  </si>
-  <si>
-    <t>064.457.520.47</t>
-  </si>
-  <si>
-    <t>Maique Pereira Agnes</t>
-  </si>
-  <si>
-    <t>Rafael Pereira da Silva</t>
-  </si>
-  <si>
-    <t>Evandro Cardoso Lippert Junior</t>
-  </si>
-  <si>
-    <t>005.252.210-50</t>
-  </si>
-  <si>
-    <t>Douglas Secco dos Santos</t>
-  </si>
-  <si>
-    <t>004.926.650-01</t>
-  </si>
-  <si>
-    <t>Dilceu Lewi</t>
-  </si>
-  <si>
-    <t>927.172.920-04</t>
-  </si>
-  <si>
-    <t>Filipe de Aguiar Geissler</t>
-  </si>
-  <si>
-    <t>006.420.910-56</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,22 +1091,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1385,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D64"/>
+  <sheetPr/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1408,16 +1447,16 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="15.75" hidden="1" spans="1:4">
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>83740074000</v>
+        <v>43466141087</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="15.75" hidden="1" spans="1:4">
+    <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1426,43 +1465,43 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" ht="15.75" hidden="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15.75" spans="1:4">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7">
+        <v>25847329806</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" hidden="1" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>83740074000</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" ht="15.75" hidden="1" spans="1:4">
+    <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" ht="15.75" hidden="1" spans="1:4">
+    <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="4">
+        <v>82167052049</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" ht="15.75" hidden="1" spans="1:4">
+    <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1510,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" ht="15.75" hidden="1" spans="1:4">
+    <row r="9" ht="15.75" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1480,30 +1519,30 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" ht="15.75" hidden="1" spans="1:4">
+    <row r="10" ht="15.75" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" ht="15.75" hidden="1" spans="1:4">
+    <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>70460299034</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" ht="15.75" hidden="1" spans="1:4">
+    <row r="12" ht="15.75" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>83740074000</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -1516,25 +1555,25 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" ht="15.75" hidden="1" spans="1:4">
+    <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4">
-        <v>39356903808</v>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" ht="15.75" hidden="1" spans="1:4">
+    <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B15" s="4">
+        <v>96685220015</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" ht="15.75" hidden="1" spans="1:4">
+    <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1582,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" ht="15.75" hidden="1" spans="1:4">
+    <row r="17" ht="15.75" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -1552,422 +1591,432 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" ht="15.75" hidden="1" spans="1:4">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="15.75" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" ht="15.75" hidden="1" spans="1:4">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="15.75" spans="1:4">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" ht="15.75" hidden="1" spans="1:4">
-      <c r="A20" s="4" t="s">
+    <row r="20" ht="15.75" spans="1:4">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" ht="15.75" hidden="1" spans="1:4">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="15.75" spans="1:4">
+      <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" ht="15.75" hidden="1" spans="1:4">
+    <row r="22" ht="15.75" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="4">
+        <v>39356903808</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" ht="15.75" hidden="1" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:4">
+      <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" ht="15.75" hidden="1" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4">
-        <v>10962500550</v>
-      </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" ht="15.75" hidden="1" spans="1:4">
-      <c r="A25" s="4" t="s">
+    <row r="25" ht="15.75" spans="1:4">
+      <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" ht="15.75" hidden="1" spans="1:4">
+    <row r="26" ht="15.75" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" ht="15.75" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" ht="15.75" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" ht="15.75" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" ht="15.75" spans="1:4">
+      <c r="A43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="8">
+        <v>96763213034</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10962500550</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" ht="15.75" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="4">
         <v>81681283034</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" hidden="1" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="4">
-        <v>96685220015</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" ht="15.75" hidden="1" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" ht="15.75" hidden="1" spans="1:4">
-      <c r="A29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" ht="15.75" hidden="1" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" ht="15.75" hidden="1" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" ht="15.75" hidden="1" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" ht="15.75" hidden="1" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" hidden="1" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4">
-        <v>70460299034</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" hidden="1" spans="1:4">
-      <c r="A36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="4">
+        <v>80349005087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" spans="1:2">
+      <c r="A50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="11">
+        <v>83878246072</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="12">
         <v>96215755087</v>
       </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" ht="15.75" hidden="1" spans="1:4">
-      <c r="A37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="4">
-        <v>80349005087</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" ht="15.75" hidden="1" spans="1:4">
-      <c r="A38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" ht="15.75" hidden="1" spans="1:4">
-      <c r="A39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="4">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4">
         <v>29646177832</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" hidden="1" spans="1:4">
-      <c r="A40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" ht="15.75" hidden="1" spans="1:4">
-      <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" ht="15.75" hidden="1" spans="1:4">
-      <c r="A42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" ht="15.75" hidden="1" spans="1:4">
-      <c r="A43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="4">
-        <v>82167052049</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" ht="15.75" hidden="1" spans="1:4">
-      <c r="A44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="4">
-        <v>43466141087</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" hidden="1" spans="1:4">
-      <c r="A45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" hidden="1" spans="1:4">
-      <c r="A46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" hidden="1" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" ht="15.75" hidden="1" spans="1:4">
-      <c r="A48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="4">
-        <v>82167052049</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" hidden="1" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" ht="15.75" hidden="1" spans="1:4">
-      <c r="A50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" hidden="1" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" hidden="1" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" hidden="1" spans="1:2">
-      <c r="A53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" hidden="1" spans="1:2">
-      <c r="A54" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" hidden="1" spans="1:2">
-      <c r="A55" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" hidden="1" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" hidden="1" spans="1:2">
-      <c r="A57" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="13">
-        <v>25847329806</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" hidden="1" spans="1:2">
-      <c r="A58" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" hidden="1" spans="1:2">
-      <c r="A59" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="11">
-        <v>96763213034</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" hidden="1" spans="1:2">
-      <c r="A60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="11">
-        <v>83878246072</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" hidden="1" spans="1:2">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" hidden="1" spans="1:2">
-      <c r="A62" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" hidden="1" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" hidden="1" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B64" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Julio César de Olivera"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B66" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:B66">
+      <sortCondition ref="A1"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
